--- a/Ablag_Exports/Meldung_AB_FZ_20241028.xlsx
+++ b/Ablag_Exports/Meldung_AB_FZ_20241028.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baselerfahren-my.sharepoint.com/personal/mirco-yves_friedli_bvb_ch/Documents/Desktop/Documents/github/digitalisation_FM/Ablag_Exports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_9AB2FD4FC4094ECA35217C07B81A964421449673" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4773727-D9D6-4B75-9EE4-B84D32E3C92B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
+    <workbookView xWindow="-28920" yWindow="-2010" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$37</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -427,23 +439,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,13 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,14 +511,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -510,48 +524,385 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="16" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="16" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="19" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="16" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="22" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="14" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="20" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="15" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="11" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="42" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="10" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="9" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="82" customWidth="1"/>
+    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -592,73 +943,73 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="2">
-        <v>45117</v>
+        <v>45591</v>
       </c>
       <c r="E2" s="3">
-        <v>0.40043981481481</v>
+        <v>0.10927083333333</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>45117</v>
+        <v>45591</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>45355</v>
+        <v>45566</v>
       </c>
       <c r="E3" s="3">
-        <v>0.99998842592593</v>
+        <v>0.87996527777778</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>45363</v>
+        <v>45566</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -667,37 +1018,37 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>45455</v>
+        <v>45526</v>
       </c>
       <c r="E4" s="3">
-        <v>0.30607638888889</v>
+        <v>0.44587962962963001</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>45455</v>
+        <v>45526</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -706,37 +1057,37 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>45489</v>
+        <v>45552</v>
       </c>
       <c r="E5" s="3">
-        <v>0.38512731481481</v>
+        <v>0.51805555555556004</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>45489</v>
+        <v>45552</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -748,37 +1099,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="2">
-        <v>45468</v>
+        <v>45537</v>
       </c>
       <c r="E6" s="3">
-        <v>0.99998842592593</v>
+        <v>0.57446759259258995</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>45495</v>
+        <v>45544</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>6</v>
@@ -787,34 +1138,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>45526</v>
+        <v>45455</v>
       </c>
       <c r="E7" s="3">
-        <v>0.44587962962963</v>
+        <v>0.30607638888888999</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>45526</v>
+        <v>45455</v>
       </c>
       <c r="I7" t="s">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -823,40 +1174,40 @@
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>45533</v>
+        <v>45489</v>
       </c>
       <c r="E8" s="3">
-        <v>0.67665509259259</v>
+        <v>0.38512731481481</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>45533</v>
+        <v>45489</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
@@ -865,34 +1216,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>45533</v>
+        <v>45468</v>
       </c>
       <c r="E9" s="3">
-        <v>0.68186342592593</v>
+        <v>0.99998842592592996</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>45533</v>
+        <v>45495</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>5</v>
@@ -904,34 +1255,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="2">
-        <v>45533</v>
+        <v>45583</v>
       </c>
       <c r="E10" s="3">
-        <v>0.64305555555556</v>
+        <v>0.43755787037036997</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>45537</v>
+        <v>45583</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -943,34 +1294,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="2">
-        <v>45533</v>
+        <v>45587</v>
       </c>
       <c r="E11" s="3">
-        <v>0.65069444444444</v>
+        <v>0.28232638888889</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>45537</v>
+        <v>45587</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -982,34 +1333,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="2">
-        <v>45534</v>
+        <v>45587</v>
       </c>
       <c r="E12" s="3">
-        <v>0.65833333333333</v>
+        <v>0.47865740740740997</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>45537</v>
+        <v>45587</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1021,37 +1372,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="2">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="E13" s="3">
-        <v>0.51046296296296</v>
+        <v>1.1574074069999999E-5</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L13" t="s">
         <v>6</v>
@@ -1060,37 +1411,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
+      <c r="C14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="E14" s="3">
-        <v>0.64046296296296</v>
+        <v>0.67665509259259005</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>45539</v>
+        <v>45533</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
         <v>6</v>
@@ -1099,73 +1450,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>45541</v>
+        <v>45574</v>
       </c>
       <c r="E15" s="3">
-        <v>0.38618055555556</v>
+        <v>1.1574074069999999E-5</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>45541</v>
+        <v>45574</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
+        <v>109</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="2">
-        <v>45537</v>
+        <v>45590</v>
       </c>
       <c r="E16" s="3">
-        <v>0.57446759259259</v>
+        <v>0.50432870370369998</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>45544</v>
+        <v>45590</v>
       </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -1177,34 +1528,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="2">
-        <v>45552</v>
+        <v>45587</v>
       </c>
       <c r="E17" s="3">
-        <v>0.51805555555556</v>
+        <v>0.90681712962963001</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>45552</v>
+        <v>45587</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>12</v>
@@ -1216,34 +1567,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>57</v>
+      <c r="C18" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D18" s="2">
-        <v>45553</v>
+        <v>45587</v>
       </c>
       <c r="E18" s="3">
-        <v>0.45783564814815</v>
+        <v>0.90703703703703997</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>45553</v>
+        <v>45587</v>
       </c>
       <c r="I18" t="s">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -1255,34 +1606,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
+        <v>113</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="2">
-        <v>45566</v>
+        <v>45590</v>
       </c>
       <c r="E19" s="3">
-        <v>0.87996527777778</v>
+        <v>0.50503472222222001</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>45566</v>
+        <v>45590</v>
       </c>
       <c r="I19" t="s">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -1291,37 +1642,37 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>45572</v>
+        <v>45533</v>
       </c>
       <c r="E20" s="3">
-        <v>0.63324074074074</v>
+        <v>0.64305555555556004</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>45572</v>
+        <v>45537</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
         <v>12</v>
@@ -1333,76 +1684,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="2">
-        <v>45574</v>
+        <v>45541</v>
       </c>
       <c r="E21" s="3">
-        <v>0.00001157407407</v>
+        <v>0.38618055555556002</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>45574</v>
+        <v>45541</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="2">
-        <v>45574</v>
+        <v>45588</v>
       </c>
       <c r="E22" s="3">
-        <v>0.00001157407407</v>
+        <v>1.1574074069999999E-5</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>45574</v>
+        <v>45588</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
         <v>6</v>
@@ -1411,37 +1762,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>45574</v>
+        <v>45553</v>
       </c>
       <c r="E23" s="3">
-        <v>0.00001157407407</v>
+        <v>0.45783564814814998</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>45574</v>
+        <v>45553</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
         <v>6</v>
@@ -1450,34 +1801,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="2">
-        <v>45583</v>
+        <v>45537</v>
       </c>
       <c r="E24" s="3">
-        <v>0.43755787037037</v>
+        <v>0.64046296296296001</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>45583</v>
+        <v>45539</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -1489,73 +1840,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>45587</v>
+        <v>45117</v>
       </c>
       <c r="E25" s="3">
-        <v>0.28232638888889</v>
+        <v>0.40043981481481</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>45587</v>
+        <v>45117</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L25" t="s">
         <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>45587</v>
+        <v>45355</v>
       </c>
       <c r="E26" s="3">
-        <v>0.48806712962963</v>
+        <v>0.99998842592592996</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>45587</v>
+        <v>45363</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
@@ -1567,37 +1918,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>45587</v>
+        <v>45533</v>
       </c>
       <c r="E27" s="3">
-        <v>0.47865740740741</v>
+        <v>0.68186342592592997</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>45587</v>
+        <v>45533</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L27" t="s">
         <v>6</v>
@@ -1606,34 +1957,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>89</v>
+      <c r="C28" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="2">
-        <v>45587</v>
+        <v>45533</v>
       </c>
       <c r="E28" s="3">
-        <v>0.90681712962963</v>
+        <v>0.65069444444444002</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>45587</v>
+        <v>45537</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -1645,34 +1996,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="2">
-        <v>45587</v>
+        <v>45572</v>
       </c>
       <c r="E29" s="3">
-        <v>0.90703703703704</v>
+        <v>0.63324074074073999</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>45587</v>
+        <v>45572</v>
       </c>
       <c r="I29" t="s">
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -1684,37 +2035,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="2">
-        <v>45588</v>
+        <v>45574</v>
       </c>
       <c r="E30" s="3">
-        <v>0.00001157407407</v>
+        <v>1.1574074069999999E-5</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>45588</v>
+        <v>45574</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L30" t="s">
         <v>6</v>
@@ -1723,34 +2074,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="2">
-        <v>45589</v>
+        <v>45534</v>
       </c>
       <c r="E31" s="3">
-        <v>0.48025462962963</v>
+        <v>0.65833333333333</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>45589</v>
+        <v>45537</v>
       </c>
       <c r="I31" t="s">
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -1759,37 +2110,37 @@
         <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="2">
-        <v>45589</v>
+        <v>45539</v>
       </c>
       <c r="E32" s="3">
-        <v>0.62437500000000</v>
+        <v>0.51046296296296001</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>45589</v>
+        <v>45539</v>
       </c>
       <c r="I32" t="s">
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -1801,34 +2152,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D33" s="2">
-        <v>45590</v>
+        <v>45587</v>
       </c>
       <c r="E33" s="3">
-        <v>0.33651620370370</v>
+        <v>0.48806712962963</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>45590</v>
+        <v>45587</v>
       </c>
       <c r="I33" t="s">
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
@@ -1840,34 +2191,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="2">
-        <v>45590</v>
+        <v>45589</v>
       </c>
       <c r="E34" s="3">
-        <v>0.50432870370370</v>
+        <v>0.62437500000000001</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>45590</v>
+        <v>45589</v>
       </c>
       <c r="I34" t="s">
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
         <v>12</v>
@@ -1879,34 +2230,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D35" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="E35" s="3">
-        <v>0.50503472222222</v>
+        <v>0.47150462962963002</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="I35" t="s">
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
@@ -1918,34 +2269,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="2">
-        <v>45591</v>
+        <v>45589</v>
       </c>
       <c r="E36" s="3">
-        <v>0.10927083333333</v>
+        <v>0.48025462962963</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>45591</v>
+        <v>45589</v>
       </c>
       <c r="I36" t="s">
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -1954,37 +2305,37 @@
         <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D37" s="2">
-        <v>45593</v>
+        <v>45590</v>
       </c>
       <c r="E37" s="3">
-        <v>0.47150462962963</v>
+        <v>0.3365162037037</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3">
-        <v>0 </v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>45593</v>
+        <v>45590</v>
       </c>
       <c r="I37" t="s">
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s">
         <v>12</v>
@@ -1997,6 +2348,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M37">
+      <sortCondition ref="C1:C37"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
